--- a/Best Buy (TV & Home Theatre).xlsx
+++ b/Best Buy (TV & Home Theatre).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/alluri-soujanya_alluri-soujanya_capgemini_com/Documents/Manual Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="923" documentId="8_{A36509F7-C581-4630-B80E-C84CBE05F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56CDC6A-7FF1-48C0-92CB-63BFD07E0047}"/>
+  <xr:revisionPtr revIDLastSave="969" documentId="8_{A36509F7-C581-4630-B80E-C84CBE05F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5D26BD-BEC0-4011-8CB4-89839621B2C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{90B1151D-9CFB-4F60-9EDC-7E7FCBDFB173}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{90B1151D-9CFB-4F60-9EDC-7E7FCBDFB173}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="234">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -431,10 +431,6 @@
     <t>User is on Checkout Page</t>
   </si>
   <si>
-    <t>1. Check if “TV Brands” link is displayed.
-2. Click on “TV Brands” link.</t>
-  </si>
-  <si>
     <t>TC_BestBuy_01</t>
   </si>
   <si>
@@ -501,9 +497,6 @@
     <t>To Validate "TV Brands" link is visible and clickable.</t>
   </si>
   <si>
-    <t>2. Click on Link</t>
-  </si>
-  <si>
     <t>“TV Brands” link is visible and clickable, and clicking it navigates to the TV Brands page.</t>
   </si>
   <si>
@@ -517,13 +510,6 @@
   </si>
   <si>
     <t>All TV brands are listed correctly after clicking the link.</t>
-  </si>
-  <si>
-    <t>1. Navigate to TV &amp; Home Theatre section.
-2. Click on a specific brand under TV Brands.</t>
-  </si>
-  <si>
-    <t>2.Brand:  LG</t>
   </si>
   <si>
     <t>User is navigated to the LG brand page showing relevant products.</t>
@@ -546,9 +532,6 @@
   <si>
     <t>1. Review the filtered product list.
 2. Select a TV model from the results.</t>
-  </si>
-  <si>
-    <t>2. Click on TV Model as per Requirements</t>
   </si>
   <si>
     <t>User can select a TV model matching the applied filters and navigate to its product page.</t>
@@ -572,17 +555,11 @@
     <t>Price on the product page matches the listed price accurately.</t>
   </si>
   <si>
-    <t>3. Click on the Review link</t>
-  </si>
-  <si>
     <t>Clicking the review link opens the customer reviews section with feedback visible.</t>
   </si>
   <si>
     <t xml:space="preserve">Customer reviews section loads successfully and displays feedback for the selected TV.
 </t>
-  </si>
-  <si>
-    <t>3. Pick Up</t>
   </si>
   <si>
     <t>The cart page should display the availability status for the selected TV clearly.</t>
@@ -607,12 +584,6 @@
 ⦁ Resolution: click on Full HD (1080p)
 ⦁ Customer rating: Top Rating
      </t>
-  </si>
-  <si>
-    <t>2. Click on Go to Cart</t>
-  </si>
-  <si>
-    <t>3. Verfiy Model: LG 48-inch,Expected Price: $699.99</t>
   </si>
   <si>
     <r>
@@ -645,11 +616,6 @@
   </si>
   <si>
     <t>Item is successfully removed from the cart, and the cart total reflects the updated amount.</t>
-  </si>
-  <si>
-    <t>1. Select multiple TVs from the checkout page.
-2. Click on the “Compare” option.
-3. Verify that the comparison page displays selected TVs with their specifications side by side.</t>
   </si>
   <si>
     <t>The “Compare” feature successfully displays all selected TVs with their details for comparison.</t>
@@ -749,10 +715,6 @@
     <t>Checkout page loads successfully with all elements visible and functional.</t>
   </si>
   <si>
-    <t>1. Click on “Add to Cart” for a selected item.
-2. Verify the item appears in the cart.</t>
-  </si>
-  <si>
     <t>1. Click on Add Cart</t>
   </si>
   <si>
@@ -762,49 +724,22 @@
     <t>Item added successfully; cart updates and shows the selected item.</t>
   </si>
   <si>
-    <t>1. Navigate to a TV product page.
-2. Click “Add to Cart”.
-3. Verify confirmation popup appears with item details and options.</t>
-  </si>
-  <si>
-    <t>3. Popup appears</t>
-  </si>
-  <si>
     <t>Confirmation popup appears showing item details and navigation options.</t>
   </si>
   <si>
     <t>Popup appears successfully with item details .</t>
   </si>
   <si>
-    <t>1. Add a TV to the cart from the product page.
-2. In the confirmation popup, click “Go to Cart”.
-3. Verify the cart page loads and displays the added item.</t>
-  </si>
-  <si>
     <t>Clicking “Go to Cart” redirects to the cart page showing correct item and quantity.</t>
   </si>
   <si>
     <t>Navigation works correctly; cart page displays the added TV with accurate details.</t>
   </si>
   <si>
-    <t>\+B54</t>
-  </si>
-  <si>
-    <t>1. Add a TV to the cart from the product page.
-2. Navigate to the Cart Page.
-3. Verify the cart displays correct TV model and quantity.</t>
-  </si>
-  <si>
     <t>Cart page shows correct TV model and quantity added by the user.</t>
   </si>
   <si>
     <t>Cart page displays correct TV model and quantity as selected.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Checkout page with at least one item.
-2. Locate item in cart.
-3. Click Remove/Delete option.
-4. Verify item is removed and cart updates.</t>
   </si>
   <si>
     <t>1. URL: https://www.bestbuy.com
@@ -832,23 +767,6 @@
     <t>Scrolling displays Product Details with all specs visible and correctly shown; interaction works as expected.</t>
   </si>
   <si>
-    <t>1. Open a TV product details page.
-2. Scroll down to Product Details section.</t>
-  </si>
-  <si>
-    <t>2. Scroll</t>
-  </si>
-  <si>
-    <t>1. Open a TV product details page.
-2. Locate Review link.
-3. Click the link and verify feedback is displayed.</t>
-  </si>
-  <si>
-    <t>1. Scroll to filter panel and locate categories.
-2. Verify Television Type, Condition, Resolution, and Customer Ratings are clickable.
-3. Apply invalid filter.</t>
-  </si>
-  <si>
     <t>Categories are visible and clickable and applying invalid filter should show “No results found” or empty product list.</t>
   </si>
   <si>
@@ -859,26 +777,6 @@
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>1. Open the BestBuy homepage in a web browser.
-2. Locate the “TV &amp; Home Theatre” link in the navigation menu.
-3. Click on the “TV &amp; Home Theatre” link.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Observe the list of TV brands displayed.</t>
-  </si>
-  <si>
-    <t>1. Scroll to the filter panel and locate categories.
-2.Verify that Television Type,Condition, Resolution, and Customer ratings categories are clickable.
-3. Apply Valid Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Navigate to the Cart Page.
-2. Click on availability status is displayed.
-3. Add to Cart.</t>
   </si>
   <si>
     <t>DF_BestBuy_TVPage_01</t>
@@ -947,9 +845,6 @@
     <t>Best Buy</t>
   </si>
   <si>
-    <t>TV Brands &amp; Home Theatre</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -957,6 +852,193 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>1. Check if “TV Brands” link is displayed or  not.
+2. Click on “TV Brands” link.</t>
+  </si>
+  <si>
+    <t>2. Click on TV Brands Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Verify list of brands is shown.</t>
+  </si>
+  <si>
+    <t>1.Brand:  LG</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Open the BestBuy homepage in a web browser.
+2. Locate the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TV &amp; Home Theatre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">” link in the navigation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+3. Click on the “TV &amp; Home Theatre” link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Click on a specific "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" under TV Brands.
+2.Verify LG brand page loads.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Scroll to filter panel and locate categories.
+2. Verify Television Type, Condition, Resolution, and Customer Ratings are clickable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Scroll to the filter panel and locate categories.
+2.Verify that Television Type,Condition, Resolution, and Customer ratings categories are clickable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click on Preferred TV Model </t>
+  </si>
+  <si>
+    <t>2. Click on the Review link</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Open  product  page.
+2. Locate and click "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" link.
+3.Verify feedback section is displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Open a TV product details page.
+2. Scroll down to Product Details section.
+3. Verify features and specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select availability of the Product.
+2. Add Tv to Cart
+</t>
+  </si>
+  <si>
+    <t>1. Pick Up</t>
+  </si>
+  <si>
+    <t>1. Click on “Add to Cart” on product page.
+2. Verify the item appears in the cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Add TV to cart.
+2. Verify confirmationpopup appears with item details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. In the confirmation popup, click “Go to Cart”.
+2. Verify the cart page loads and displays the added item.</t>
+  </si>
+  <si>
+    <t>1. Click on Go to Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to the Cart Page.
+2. Verify the cart displays correct TV model and quantity.</t>
+  </si>
+  <si>
+    <t>2. Verfiy Model: LG 48-inch,Expected Price: $699.99</t>
+  </si>
+  <si>
+    <t>1. Navigate to Checkout page with at least one item.
+2. Locate item in cart.
+3. Click Remove option.
+4. Verify item is removed and cart updates.</t>
+  </si>
+  <si>
+    <t>1. Select multiple TVs from the cart page.
+2. Click on the “Compare” option.
+3. Verify that the comparison page displays selected TVs with their specifications side by side.</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1113,6 +1195,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1159,9 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1176,6 +1268,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,19 +1290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1547,7 +1642,7 @@
   </sheetPr>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1560,11 +1655,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -1594,7 +1689,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1605,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1616,7 +1711,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1627,7 +1722,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1638,7 +1733,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1649,7 +1744,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1660,7 +1755,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1671,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1682,7 +1777,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1693,7 +1788,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1704,7 +1799,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1715,7 +1810,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1726,7 +1821,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1737,7 +1832,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1748,7 +1843,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1759,7 +1854,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1770,7 +1865,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1781,7 +1876,7 @@
         <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -1983,7 +2078,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2034,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="232" x14ac:dyDescent="0.35">
@@ -2054,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="145" x14ac:dyDescent="0.35">
@@ -2110,15 +2205,15 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="22.08984375" customWidth="1"/>
@@ -2176,7 +2271,7 @@
     </row>
     <row r="2" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>82</v>
@@ -2184,23 +2279,23 @@
       <c r="C2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>131</v>
+      <c r="D2" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>208</v>
+      <c r="I2" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -2209,7 +2304,7 @@
     </row>
     <row r="3" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>82</v>
@@ -2217,23 +2312,23 @@
       <c r="C3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>208</v>
+      <c r="I3" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -2242,7 +2337,7 @@
     </row>
     <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>82</v>
@@ -2250,32 +2345,32 @@
       <c r="C4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>208</v>
+      <c r="I4" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>82</v>
@@ -2283,23 +2378,23 @@
       <c r="C5" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -2308,31 +2403,31 @@
     </row>
     <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>208</v>
+        <v>155</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -2341,31 +2436,31 @@
     </row>
     <row r="7" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>209</v>
+        <v>154</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2374,7 +2469,7 @@
     </row>
     <row r="8" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>83</v>
@@ -2382,23 +2477,23 @@
       <c r="C8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2407,7 +2502,7 @@
     </row>
     <row r="9" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>83</v>
@@ -2415,23 +2510,23 @@
       <c r="C9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2440,7 +2535,7 @@
     </row>
     <row r="10" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>83</v>
@@ -2448,23 +2543,23 @@
       <c r="C10" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>208</v>
+        <v>221</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -2473,7 +2568,7 @@
     </row>
     <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>83</v>
@@ -2481,32 +2576,32 @@
       <c r="C11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>208</v>
+        <v>134</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>72</v>
@@ -2514,23 +2609,23 @@
       <c r="C12" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>208</v>
+        <v>225</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2539,7 +2634,7 @@
     </row>
     <row r="13" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>72</v>
@@ -2547,32 +2642,32 @@
       <c r="C13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>208</v>
+        <v>169</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>72</v>
@@ -2580,32 +2675,32 @@
       <c r="C14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>208</v>
+        <v>134</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>72</v>
@@ -2613,32 +2708,32 @@
       <c r="C15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>72</v>
@@ -2646,32 +2741,32 @@
       <c r="C16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>208</v>
+        <v>231</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>73</v>
@@ -2679,32 +2774,32 @@
       <c r="C17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>208</v>
+        <v>164</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>73</v>
@@ -2712,23 +2807,23 @@
       <c r="C18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>209</v>
+        <v>163</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -2737,7 +2832,7 @@
     </row>
     <row r="19" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>73</v>
@@ -2745,23 +2840,23 @@
       <c r="C19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -2770,7 +2865,7 @@
     </row>
     <row r="20" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>73</v>
@@ -2778,23 +2873,23 @@
       <c r="C20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>208</v>
+        <v>180</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -2803,7 +2898,7 @@
     </row>
     <row r="21" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>73</v>
@@ -2811,33 +2906,28 @@
       <c r="C21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>208</v>
+        <v>134</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>190</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2888,42 +2978,42 @@
     </row>
     <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>218</v>
+        <v>192</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>218</v>
+        <v>192</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +3033,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2978,307 +3068,307 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>231</v>
+      <c r="E21" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3306,10 +3396,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3326,17 +3416,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3368,11 +3458,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>232</v>
+      <c r="A3" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C3" s="14">
         <v>20</v>
@@ -3386,27 +3476,15 @@
       <c r="F3" s="14">
         <v>20</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="23">
         <v>0.9</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="23">
         <v>0.2</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
